--- a/Phase 2/2.0.Data_Dictionary.xlsx
+++ b/Phase 2/2.0.Data_Dictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E5C43-5755-4E8E-BB77-D6E7A14D5E31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8D7F4-DF38-475F-A40B-19CC490E8D43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="972" windowWidth="17280" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>Table</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Driver Type ID</t>
-  </si>
-  <si>
-    <t>Truck Driver</t>
   </si>
   <si>
     <t>Unique ID for Driver Type</t>
@@ -339,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="m\-d\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="00000"/>
-    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m\-d\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -398,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -407,13 +404,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -700,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +957,7 @@
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <v>15948</v>
       </c>
       <c r="D14" s="2">
@@ -970,56 +967,56 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="2">
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>159159159</v>
+      </c>
       <c r="D16" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <v>159159159</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D17" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>80</v>
@@ -1028,28 +1025,27 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>43572</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="2">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5">
-        <v>43572</v>
+        <v>43480</v>
       </c>
       <c r="D19" s="2">
         <v>8</v>
@@ -1063,47 +1059,47 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5">
-        <v>43480</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5">
+        <v>43515</v>
+      </c>
+      <c r="D22" s="2">
         <v>8</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>85</v>
@@ -1111,16 +1107,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="5">
-        <v>43515</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>86</v>
@@ -1128,10 +1121,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
@@ -1142,13 +1138,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
@@ -1159,16 +1155,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>89</v>
@@ -1176,16 +1172,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="C27" s="9">
+        <v>42232</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>90</v>
@@ -1193,10 +1186,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9">
-        <v>42232</v>
+        <v>42257</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>20</v>
@@ -1206,45 +1199,48 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="9">
-        <v>42257</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
+        <v>456123789</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1">
-        <v>456123789</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D30" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2">
         <v>15</v>
@@ -1257,68 +1253,68 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>159487564</v>
       </c>
       <c r="D32" s="2">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2">
         <v>15</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="1">
-        <v>159487564</v>
-      </c>
-      <c r="D33" s="2">
-        <v>9</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2">
         <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2">
-        <v>50</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>19</v>
@@ -1327,15 +1323,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>19</v>
@@ -1344,32 +1340,32 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>56001</v>
       </c>
       <c r="D37" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1">
-        <v>56001</v>
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
@@ -1378,29 +1374,29 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D39" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2">
         <v>25</v>
@@ -1409,37 +1405,20 @@
         <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="2">
-        <v>25</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
-    <hyperlink ref="C41" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
+    <hyperlink ref="C39" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
+    <hyperlink ref="C40" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Phase 2/2.0.Data_Dictionary.xlsx
+++ b/Phase 2/2.0.Data_Dictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8D7F4-DF38-475F-A40B-19CC490E8D43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548565A-76F5-4BC2-9D02-D0AB9C5FBB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="972" windowWidth="17280" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
   <si>
     <t>Table</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Driver ID</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>MVR ID</t>
   </si>
   <si>
-    <t>Char</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>MVR</t>
   </si>
   <si>
-    <t>MVR status</t>
-  </si>
-  <si>
     <t>Request Date</t>
   </si>
   <si>
@@ -329,6 +320,51 @@
   </si>
   <si>
     <t>Company Rep Email</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Driver's Status</t>
+  </si>
+  <si>
+    <t>Report of Driver</t>
+  </si>
+  <si>
+    <t>Type of Driver</t>
+  </si>
+  <si>
+    <t>State ID</t>
+  </si>
+  <si>
+    <t>Unique State ID</t>
+  </si>
+  <si>
+    <t>State Initial</t>
+  </si>
+  <si>
+    <t>Initial of State</t>
+  </si>
+  <si>
+    <t>State Rules</t>
+  </si>
+  <si>
+    <t>Rules of the State</t>
+  </si>
+  <si>
+    <t>MVR Status</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
 </sst>
 </file>
@@ -697,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -729,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -746,88 +782,88 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <v>43570</v>
@@ -836,70 +872,70 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>56001</v>
@@ -908,34 +944,34 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="8">
         <v>3</v>
@@ -944,481 +980,553 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="8">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8">
         <v>15948</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2">
-        <v>25</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>159159159</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="2">
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>159159159</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43572</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43480</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5">
-        <v>43572</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5">
-        <v>43480</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5">
-        <v>43515</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43515</v>
       </c>
       <c r="D24" s="2">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="9">
-        <v>42232</v>
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="9">
-        <v>42257</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1">
-        <v>456123789</v>
-      </c>
-      <c r="D29" s="2">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="C29" s="9">
+        <v>42232</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="2">
+        <v>50</v>
+      </c>
+      <c r="C30" s="9">
+        <v>42257</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>456123789</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2">
         <v>15</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1">
-        <v>159487564</v>
-      </c>
-      <c r="D32" s="2">
-        <v>9</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2">
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1">
+        <v>159487564</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="2">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>56001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="2">
-        <v>50</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="D42" s="2">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="2">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="1">
+        <v>14142</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1">
-        <v>56001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="2">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2">
-        <v>25</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="2">
-        <v>25</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
-    <hyperlink ref="C40" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
+    <hyperlink ref="C42" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Phase 2/2.0.Data_Dictionary.xlsx
+++ b/Phase 2/2.0.Data_Dictionary.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548565A-76F5-4BC2-9D02-D0AB9C5FBB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406ABAE4-5693-4B4E-9804-BC52DB0E49F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="972" windowWidth="17280" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="576" yWindow="60" windowWidth="17280" windowHeight="11388" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Element" sheetId="1" r:id="rId1"/>
+    <sheet name="External Entity" sheetId="5" r:id="rId2"/>
+    <sheet name="Data Flow" sheetId="3" r:id="rId3"/>
+    <sheet name="Processes" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="214">
   <si>
     <t>Table</t>
   </si>
@@ -49,9 +52,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>SSN</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
@@ -97,12 +97,6 @@
     <t>Driver's Last Name</t>
   </si>
   <si>
-    <t>Driver's SSN</t>
-  </si>
-  <si>
-    <t>Driver's DOB</t>
-  </si>
-  <si>
     <t>Driver's Address</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Report Date</t>
   </si>
   <si>
-    <t>Driver Report</t>
-  </si>
-  <si>
     <t>Underwriter</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>123-12-1234</t>
-  </si>
-  <si>
     <t>1234 Monks Ave</t>
   </si>
   <si>
@@ -337,9 +325,6 @@
     <t>Driver's Status</t>
   </si>
   <si>
-    <t>Report of Driver</t>
-  </si>
-  <si>
     <t>Type of Driver</t>
   </si>
   <si>
@@ -365,16 +350,329 @@
   </si>
   <si>
     <t>TEXT</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>MVR State Rules</t>
+  </si>
+  <si>
+    <t>Driver's Date of Birth</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>MVR Company</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>External Entity Name</t>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>Process Number</t>
+  </si>
+  <si>
+    <t>Order MVR</t>
+  </si>
+  <si>
+    <t>Check Violation</t>
+  </si>
+  <si>
+    <t>Determine Eligibility</t>
+  </si>
+  <si>
+    <t>Automated MVR Order</t>
+  </si>
+  <si>
+    <t>List Driver History</t>
+  </si>
+  <si>
+    <t>Manage Drivers</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>Output Data</t>
+  </si>
+  <si>
+    <t>New Driver Info</t>
+  </si>
+  <si>
+    <t>Approval Report</t>
+  </si>
+  <si>
+    <t>MVR Client</t>
+  </si>
+  <si>
+    <t>Check Request</t>
+  </si>
+  <si>
+    <t>Driver Information</t>
+  </si>
+  <si>
+    <t>MVR Information</t>
+  </si>
+  <si>
+    <t>Current Violation</t>
+  </si>
+  <si>
+    <t>New Driver info, Duplication Error</t>
+  </si>
+  <si>
+    <t>Driver Information, MVR, MVR Order Request, State Codes/Format</t>
+  </si>
+  <si>
+    <t>MVR Information, Violation Code</t>
+  </si>
+  <si>
+    <t>Current Violation, Order History, Approval Report</t>
+  </si>
+  <si>
+    <t>Eligibility, Denial Report</t>
+  </si>
+  <si>
+    <t>Most Recent Order, Frequency Rules, Check Request</t>
+  </si>
+  <si>
+    <t>MVR Order Request</t>
+  </si>
+  <si>
+    <t>MVR Information, MVR Order Details, MVR Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Violation, New Violation, </t>
+  </si>
+  <si>
+    <t>MVR Orders List, Violation List</t>
+  </si>
+  <si>
+    <t>Order History</t>
+  </si>
+  <si>
+    <t>Updated Driver Info</t>
+  </si>
+  <si>
+    <t>Current Driver, Changed Info</t>
+  </si>
+  <si>
+    <t>Add new drivers to the system</t>
+  </si>
+  <si>
+    <t>Add New Driver</t>
+  </si>
+  <si>
+    <t>Manage Drivers Information</t>
+  </si>
+  <si>
+    <t>List History of Drivers</t>
+  </si>
+  <si>
+    <t>Automatically send request to order MVR</t>
+  </si>
+  <si>
+    <t>Determine if driver is eligible to be insured</t>
+  </si>
+  <si>
+    <t>Check Driver Record for Violations</t>
+  </si>
+  <si>
+    <t>Order MVR for Drivers</t>
+  </si>
+  <si>
+    <t>New Driver information</t>
+  </si>
+  <si>
+    <t>Driver Info, Order MVR</t>
+  </si>
+  <si>
+    <t>Duplication Error</t>
+  </si>
+  <si>
+    <t>Error of duplication</t>
+  </si>
+  <si>
+    <t>Driver Info</t>
+  </si>
+  <si>
+    <t>Information of driver</t>
+  </si>
+  <si>
+    <t>Update the driver information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Driver </t>
+  </si>
+  <si>
+    <t>Current Driver working with the client</t>
+  </si>
+  <si>
+    <t>Denial Report</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>New Violation</t>
+  </si>
+  <si>
+    <t>Violation List</t>
+  </si>
+  <si>
+    <t>Changed Info</t>
+  </si>
+  <si>
+    <t>Violation Codes</t>
+  </si>
+  <si>
+    <t>MVR Order List</t>
+  </si>
+  <si>
+    <t>MVR Order Errors</t>
+  </si>
+  <si>
+    <t>Frequency Rules</t>
+  </si>
+  <si>
+    <t>Most Recent Order</t>
+  </si>
+  <si>
+    <t>State Codes/Format</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Data Flow Label</t>
+  </si>
+  <si>
+    <t>Send denial report to client</t>
+  </si>
+  <si>
+    <t>Violation History</t>
+  </si>
+  <si>
+    <t>Check Violations</t>
+  </si>
+  <si>
+    <t>Violation Type Table</t>
+  </si>
+  <si>
+    <t>MVR Orders</t>
+  </si>
+  <si>
+    <t>MVR Rules</t>
+  </si>
+  <si>
+    <t>MVR orders</t>
+  </si>
+  <si>
+    <t>State Order Table</t>
+  </si>
+  <si>
+    <t>Send eligibility to Underwriter</t>
+  </si>
+  <si>
+    <t>Approval of Underwriter for eligibility</t>
+  </si>
+  <si>
+    <t>New violation added onto the violation history</t>
+  </si>
+  <si>
+    <t>List of Violations of the Driver</t>
+  </si>
+  <si>
+    <t>Order History of MVRs</t>
+  </si>
+  <si>
+    <t>Current Violation of Driver</t>
+  </si>
+  <si>
+    <t>Updates to Driver information</t>
+  </si>
+  <si>
+    <t>Information of MVR</t>
+  </si>
+  <si>
+    <t>Code of violation that is in the system</t>
+  </si>
+  <si>
+    <t>List of Ordered MVRs</t>
+  </si>
+  <si>
+    <t>Client of the MVR being ordered to</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Records</t>
+  </si>
+  <si>
+    <t>Errors of ordering a MVR</t>
+  </si>
+  <si>
+    <t>Processor checking MVR Request</t>
+  </si>
+  <si>
+    <t>The amount of times MVR should be ordered for a Driver</t>
+  </si>
+  <si>
+    <t>Most recent MVR order</t>
+  </si>
+  <si>
+    <t>Code for states when ordering MVRs</t>
+  </si>
+  <si>
+    <t>Providing information of Drivers</t>
+  </si>
+  <si>
+    <t>Manage the MVR's of their clients</t>
+  </si>
+  <si>
+    <t>Send Driver's MVR to Clients</t>
+  </si>
+  <si>
+    <t>Driver Eligibility</t>
+  </si>
+  <si>
+    <t>Driver Violation</t>
+  </si>
+  <si>
+    <t>Driver Eligibility Report</t>
+  </si>
+  <si>
+    <t>Order Info</t>
+  </si>
+  <si>
+    <t>Driver MVR History</t>
+  </si>
+  <si>
+    <t>Handle the MVR when receiving from MVR Company</t>
+  </si>
+  <si>
+    <t>Driver MVR</t>
+  </si>
+  <si>
+    <t>Violation Records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m\-d\-yyyy"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -402,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +726,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,11 +735,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,23 +1043,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,753 +1076,1429 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>159487564</v>
       </c>
       <c r="D3" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15948</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
-        <v>43570</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43570</v>
       </c>
       <c r="D8" s="2">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>56001</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>56001</v>
       </c>
       <c r="D12" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
       </c>
       <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="5">
         <v>15948</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="2">
-        <v>15</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
+        <v>70</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
         <v>159159159</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2">
-        <v>25</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1">
+        <v>14142</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
         <v>43572</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D23" s="2">
         <v>8</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5">
-        <v>43480</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5">
-        <v>43515</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43480</v>
       </c>
       <c r="D24" s="2">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43515</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="9">
-        <v>42232</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="9">
-        <v>42257</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1">
-        <v>456123789</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="3">
+        <v>42232</v>
       </c>
       <c r="D31" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="3">
+        <v>42257</v>
       </c>
       <c r="D32" s="2">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <v>456123789</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2">
         <v>15</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1">
-        <v>159487564</v>
-      </c>
-      <c r="D34" s="2">
-        <v>9</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="C36" s="1">
+        <v>159487564</v>
       </c>
       <c r="D36" s="2">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>456123789</v>
       </c>
       <c r="D37" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1">
-        <v>56001</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="2">
         <v>15</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="2">
-        <v>10</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D41" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="1">
+        <v>56001</v>
       </c>
       <c r="D42" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="1">
-        <v>14142</v>
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D43" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D44" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>54</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2">
+        <v>40</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1">
+        <v>14142</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
-    <hyperlink ref="C42" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
+    <hyperlink ref="C44" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD9E079-F57B-4E05-8013-5878C8A7F86D}">
+  <dimension ref="A3:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47226E4-FC4F-452A-AB84-4CB07D7852A8}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168A1E5E-5910-4CD2-A452-8EAD7883F38D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Phase 2/2.0.Data_Dictionary.xlsx
+++ b/Phase 2/2.0.Data_Dictionary.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548565A-76F5-4BC2-9D02-D0AB9C5FBB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C79443D-F813-4DB6-B3B2-7942294924A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="972" windowWidth="17280" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1272" yWindow="756" windowWidth="17280" windowHeight="11388" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Element" sheetId="1" r:id="rId1"/>
+    <sheet name="External Entity" sheetId="5" r:id="rId2"/>
+    <sheet name="Data Flow" sheetId="3" r:id="rId3"/>
+    <sheet name="Processes" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="214">
   <si>
     <t>Table</t>
   </si>
@@ -49,9 +52,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>SSN</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
@@ -97,12 +97,6 @@
     <t>Driver's Last Name</t>
   </si>
   <si>
-    <t>Driver's SSN</t>
-  </si>
-  <si>
-    <t>Driver's DOB</t>
-  </si>
-  <si>
     <t>Driver's Address</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Report Date</t>
   </si>
   <si>
-    <t>Driver Report</t>
-  </si>
-  <si>
     <t>Underwriter</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>123-12-1234</t>
-  </si>
-  <si>
     <t>1234 Monks Ave</t>
   </si>
   <si>
@@ -337,9 +325,6 @@
     <t>Driver's Status</t>
   </si>
   <si>
-    <t>Report of Driver</t>
-  </si>
-  <si>
     <t>Type of Driver</t>
   </si>
   <si>
@@ -365,16 +350,329 @@
   </si>
   <si>
     <t>TEXT</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>MVR State Rules</t>
+  </si>
+  <si>
+    <t>Driver's Date of Birth</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>MVR Company</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>External Entity Name</t>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>Process Number</t>
+  </si>
+  <si>
+    <t>Order MVR</t>
+  </si>
+  <si>
+    <t>Check Violation</t>
+  </si>
+  <si>
+    <t>Determine Eligibility</t>
+  </si>
+  <si>
+    <t>Automated MVR Order</t>
+  </si>
+  <si>
+    <t>List Driver History</t>
+  </si>
+  <si>
+    <t>Manage Drivers</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>Output Data</t>
+  </si>
+  <si>
+    <t>New Driver Info</t>
+  </si>
+  <si>
+    <t>Approval Report</t>
+  </si>
+  <si>
+    <t>MVR Client</t>
+  </si>
+  <si>
+    <t>Check Request</t>
+  </si>
+  <si>
+    <t>Driver Information</t>
+  </si>
+  <si>
+    <t>MVR Information</t>
+  </si>
+  <si>
+    <t>Current Violation</t>
+  </si>
+  <si>
+    <t>New Driver info, Duplication Error</t>
+  </si>
+  <si>
+    <t>Driver Information, MVR, MVR Order Request, State Codes/Format</t>
+  </si>
+  <si>
+    <t>MVR Information, Violation Code</t>
+  </si>
+  <si>
+    <t>Current Violation, Order History, Approval Report</t>
+  </si>
+  <si>
+    <t>Eligibility, Denial Report</t>
+  </si>
+  <si>
+    <t>Most Recent Order, Frequency Rules, Check Request</t>
+  </si>
+  <si>
+    <t>MVR Order Request</t>
+  </si>
+  <si>
+    <t>MVR Information, MVR Order Details, MVR Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Violation, New Violation, </t>
+  </si>
+  <si>
+    <t>MVR Orders List, Violation List</t>
+  </si>
+  <si>
+    <t>Order History</t>
+  </si>
+  <si>
+    <t>Updated Driver Info</t>
+  </si>
+  <si>
+    <t>Current Driver, Changed Info</t>
+  </si>
+  <si>
+    <t>Add new drivers to the system</t>
+  </si>
+  <si>
+    <t>Add New Driver</t>
+  </si>
+  <si>
+    <t>Manage Drivers Information</t>
+  </si>
+  <si>
+    <t>List History of Drivers</t>
+  </si>
+  <si>
+    <t>Automatically send request to order MVR</t>
+  </si>
+  <si>
+    <t>Determine if driver is eligible to be insured</t>
+  </si>
+  <si>
+    <t>Check Driver Record for Violations</t>
+  </si>
+  <si>
+    <t>Order MVR for Drivers</t>
+  </si>
+  <si>
+    <t>New Driver information</t>
+  </si>
+  <si>
+    <t>Driver Info, Order MVR</t>
+  </si>
+  <si>
+    <t>Duplication Error</t>
+  </si>
+  <si>
+    <t>Error of duplication</t>
+  </si>
+  <si>
+    <t>Driver Info</t>
+  </si>
+  <si>
+    <t>Information of driver</t>
+  </si>
+  <si>
+    <t>Update the driver information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Driver </t>
+  </si>
+  <si>
+    <t>Current Driver working with the client</t>
+  </si>
+  <si>
+    <t>Denial Report</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>New Violation</t>
+  </si>
+  <si>
+    <t>Violation List</t>
+  </si>
+  <si>
+    <t>Changed Info</t>
+  </si>
+  <si>
+    <t>Violation Codes</t>
+  </si>
+  <si>
+    <t>MVR Order List</t>
+  </si>
+  <si>
+    <t>MVR Order Errors</t>
+  </si>
+  <si>
+    <t>Frequency Rules</t>
+  </si>
+  <si>
+    <t>Most Recent Order</t>
+  </si>
+  <si>
+    <t>State Codes/Format</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Data Flow Label</t>
+  </si>
+  <si>
+    <t>Send denial report to client</t>
+  </si>
+  <si>
+    <t>Violation History</t>
+  </si>
+  <si>
+    <t>Check Violations</t>
+  </si>
+  <si>
+    <t>Violation Type Table</t>
+  </si>
+  <si>
+    <t>MVR Orders</t>
+  </si>
+  <si>
+    <t>MVR Rules</t>
+  </si>
+  <si>
+    <t>MVR orders</t>
+  </si>
+  <si>
+    <t>State Order Table</t>
+  </si>
+  <si>
+    <t>Send eligibility to Underwriter</t>
+  </si>
+  <si>
+    <t>Approval of Underwriter for eligibility</t>
+  </si>
+  <si>
+    <t>New violation added onto the violation history</t>
+  </si>
+  <si>
+    <t>List of Violations of the Driver</t>
+  </si>
+  <si>
+    <t>Order History of MVRs</t>
+  </si>
+  <si>
+    <t>Current Violation of Driver</t>
+  </si>
+  <si>
+    <t>Updates to Driver information</t>
+  </si>
+  <si>
+    <t>Information of MVR</t>
+  </si>
+  <si>
+    <t>Code of violation that is in the system</t>
+  </si>
+  <si>
+    <t>List of Ordered MVRs</t>
+  </si>
+  <si>
+    <t>Client of the MVR being ordered to</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Records</t>
+  </si>
+  <si>
+    <t>Errors of ordering a MVR</t>
+  </si>
+  <si>
+    <t>Processor checking MVR Request</t>
+  </si>
+  <si>
+    <t>The amount of times MVR should be ordered for a Driver</t>
+  </si>
+  <si>
+    <t>Most recent MVR order</t>
+  </si>
+  <si>
+    <t>Code for states when ordering MVRs</t>
+  </si>
+  <si>
+    <t>Providing information of Drivers</t>
+  </si>
+  <si>
+    <t>Manage the MVR's of their clients</t>
+  </si>
+  <si>
+    <t>Send Driver's MVR to Clients</t>
+  </si>
+  <si>
+    <t>Driver Eligibility</t>
+  </si>
+  <si>
+    <t>Driver Violation</t>
+  </si>
+  <si>
+    <t>Driver Eligibility Report</t>
+  </si>
+  <si>
+    <t>Order Info</t>
+  </si>
+  <si>
+    <t>Driver MVR History</t>
+  </si>
+  <si>
+    <t>Review Drivers</t>
+  </si>
+  <si>
+    <t>Review Driver errors/violations then send to Underwriter</t>
+  </si>
+  <si>
+    <t>Review Violation Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m\-d\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -402,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,29 +726,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,23 +1043,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,753 +1076,1429 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>159487564</v>
       </c>
       <c r="D3" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15948</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
-        <v>43570</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43570</v>
       </c>
       <c r="D8" s="2">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>56001</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>56001</v>
       </c>
       <c r="D12" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
       </c>
       <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="5">
         <v>15948</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="2">
-        <v>15</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
+        <v>70</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
         <v>159159159</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2">
-        <v>25</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1">
+        <v>14142</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
         <v>43572</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D23" s="2">
         <v>8</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5">
-        <v>43480</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5">
-        <v>43515</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43480</v>
       </c>
       <c r="D24" s="2">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43515</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="9">
-        <v>42232</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="9">
-        <v>42257</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1">
-        <v>456123789</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="3">
+        <v>42232</v>
       </c>
       <c r="D31" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="3">
+        <v>42257</v>
       </c>
       <c r="D32" s="2">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <v>456123789</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2">
         <v>15</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1">
-        <v>159487564</v>
-      </c>
-      <c r="D34" s="2">
-        <v>9</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="C36" s="1">
+        <v>159487564</v>
       </c>
       <c r="D36" s="2">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>456123789</v>
       </c>
       <c r="D37" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1">
-        <v>56001</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="2">
         <v>15</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="2">
-        <v>10</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D41" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="1">
+        <v>56001</v>
       </c>
       <c r="D42" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="1">
-        <v>14142</v>
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D43" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D44" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>54</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2">
+        <v>40</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1">
+        <v>14142</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
-    <hyperlink ref="C42" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
+    <hyperlink ref="C44" r:id="rId1" xr:uid="{114DC1D7-4E7D-434F-8675-0684CDCA83BC}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{160FEF2C-4E1B-471A-A608-DBF57A0B053D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD9E079-F57B-4E05-8013-5878C8A7F86D}">
+  <dimension ref="A3:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47226E4-FC4F-452A-AB84-4CB07D7852A8}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168A1E5E-5910-4CD2-A452-8EAD7883F38D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Phase 2/2.0.Data_Dictionary.xlsx
+++ b/Phase 2/2.0.Data_Dictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C79443D-F813-4DB6-B3B2-7942294924A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B5F84-BB5C-0940-BF66-06C7DDD71EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="756" windowWidth="17280" windowHeight="11388" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="760" windowWidth="17280" windowHeight="11380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -745,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1033,16 +1036,16 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -1100,7 +1103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>68</v>
@@ -1118,7 +1121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1136,7 +1139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1154,7 +1157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1172,7 +1175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -1190,7 +1193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1208,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -1226,7 +1229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1244,7 +1247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -1262,7 +1265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -1280,7 +1283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -1298,7 +1301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>98</v>
@@ -1316,7 +1319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>56</v>
@@ -1352,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>70</v>
@@ -1366,7 +1369,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1404,7 +1407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -1422,7 +1425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>107</v>
@@ -1440,7 +1443,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -1458,7 +1461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>105</v>
       </c>
@@ -1898,87 +1901,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD9E079-F57B-4E05-8013-5878C8A7F86D}">
-  <dimension ref="A3:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>203</v>
+        <v>115</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>204</v>
+        <v>116</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1992,19 +1995,19 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>177</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -2284,7 +2287,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -2353,16 +2356,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>119</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
